--- a/TCCB-ThuyenChuyen-TuyenDung/TCCB_QuanLy/obj/Release/Package/PackageTmp/Utils/ds-thuyenchuyen.xlsx
+++ b/TCCB-ThuyenChuyen-TuyenDung/TCCB_QuanLy/obj/Release/Package/PackageTmp/Utils/ds-thuyenchuyen.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>DANH SÁCH THUYÊN CHUYỂN ĐÃ TIẾP NHẬN</t>
   </si>
@@ -95,71 +95,457 @@
     <t>MỐC NÂNG LƯƠNG</t>
   </si>
   <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>Trung Tâm Thông tin và Chương trình Giáo dục</t>
-  </si>
-  <si>
-    <t>Không có</t>
-  </si>
-  <si>
-    <t>Công nghệ thông tin</t>
-  </si>
-  <si>
-    <t>Phòng Khảo thí &amp; KĐCLGD</t>
-  </si>
-  <si>
-    <t>Thành Trương Hữu</t>
-  </si>
-  <si>
-    <t>025237737</t>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>THPT Tân Phong</t>
+  </si>
+  <si>
+    <t>Trung học phổ thông</t>
+  </si>
+  <si>
+    <t>Tin học</t>
+  </si>
+  <si>
+    <t>THPT Trần Quang Khải</t>
+  </si>
+  <si>
+    <t>Vũ Trường</t>
+  </si>
+  <si>
+    <t>023069074</t>
   </si>
   <si>
     <t>Nam</t>
   </si>
   <si>
-    <t>10/02/1995</t>
-  </si>
-  <si>
-    <t>Xã Hà Tân, Huyện Hà Trung, Tỉnh Thanh Hóa</t>
-  </si>
-  <si>
-    <t>28/17A, Phường Hiệp Thành, Quận 12, Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>0988670449</t>
-  </si>
-  <si>
-    <t>truonghuuthanh95@gmail.com</t>
+    <t>14/11/1979</t>
+  </si>
+  <si>
+    <t>Phường 03, Quận 3, Thành Phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>47/1 Đường Lô Tư, Phường Binh Hưng Hoà A, Quận Bình Tân, Thành Phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0935970957</t>
+  </si>
+  <si>
+    <t>netvu2002@gmail.com</t>
   </si>
   <si>
     <t>Tốt nghiệp Đại học ngành khác</t>
   </si>
   <si>
-    <t xml:space="preserve">Phần mềm
+    <t xml:space="preserve">Công nghệ thông tin
 </t>
   </si>
   <si>
     <t>Chính quy</t>
   </si>
   <si>
+    <t>Trung bình</t>
+  </si>
+  <si>
+    <t>Đại học</t>
+  </si>
+  <si>
+    <t>V.07.05.15</t>
+  </si>
+  <si>
+    <t>3.66</t>
+  </si>
+  <si>
+    <t>Bậc 5</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>THPT Hùng Vương</t>
+  </si>
+  <si>
+    <t>Ngữ văn</t>
+  </si>
+  <si>
+    <t>THPT Nguyễn Hữu Cầu</t>
+  </si>
+  <si>
+    <t>Trương Võ Ngọc Châu</t>
+  </si>
+  <si>
+    <t>024433084</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>24/04/1991</t>
+  </si>
+  <si>
+    <t>Xã Xuân Thới Thượng, Huyện Hóc Môn, Thành Phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>24/6 đường Phan Văn Hớn, Xã Xuân Thới Thượng, Huyện Hóc Môn, Thành Phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0767217958</t>
+  </si>
+  <si>
+    <t>truongvongocchau1991@gmail.com</t>
+  </si>
+  <si>
+    <t>Tốt nghiệp Đại học chuyên ngành sư phạm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sư phạm Ngữ văn
+</t>
+  </si>
+  <si>
+    <t>Khá</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>Bậc 2</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>TC37</t>
+  </si>
+  <si>
+    <t>THPT Trung Lập</t>
+  </si>
+  <si>
+    <t>Tiếng Anh</t>
+  </si>
+  <si>
+    <t>THPT mới - Huyện Bình Chánh</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Linh</t>
+  </si>
+  <si>
+    <t>079090005189</t>
+  </si>
+  <si>
+    <t>22/05/1990</t>
+  </si>
+  <si>
+    <t>Phường Phạm Ngũ Lão, Quận 1, Thành Phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>30/113, Lâm Văn Bền, Phường Tân Kiểng, Quận 7, Thành Phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0769633910</t>
+  </si>
+  <si>
+    <t>hoanglinh2205@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngôn ngữ Anh
+</t>
+  </si>
+  <si>
     <t>Trung bình khá</t>
   </si>
   <si>
-    <t>Đại học</t>
-  </si>
-  <si>
-    <t>01003321312</t>
-  </si>
-  <si>
-    <t>2.34</t>
-  </si>
-  <si>
-    <t>Bậc 1</t>
-  </si>
-  <si>
-    <t>09/07/2019</t>
+    <t>3,00</t>
+  </si>
+  <si>
+    <t>Bậc 3</t>
+  </si>
+  <si>
+    <t>01/01/2020</t>
+  </si>
+  <si>
+    <t>TC47</t>
+  </si>
+  <si>
+    <t>THPT Nguyễn Văn Tăng</t>
+  </si>
+  <si>
+    <t>Toán học</t>
+  </si>
+  <si>
+    <t>THPT Linh Trung</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Trang</t>
+  </si>
+  <si>
+    <t>025939957</t>
+  </si>
+  <si>
+    <t>06/04/1990</t>
+  </si>
+  <si>
+    <t>Thị Trấn Thiên Cầm, Huyện Cẩm Xuyên, Tỉnh Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>26/2H - Ấp Xuân Thới Đông 1, Xã Xuân Thới Đông, Huyện Hóc Môn, Thành Phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0973569023</t>
+  </si>
+  <si>
+    <t>nguyentrang090690@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sư phạm Toán học
+</t>
+  </si>
+  <si>
+    <t>Giỏi</t>
+  </si>
+  <si>
+    <t>TC66</t>
+  </si>
+  <si>
+    <t>THPT Đa Phước</t>
+  </si>
+  <si>
+    <t>THPT Nguyễn Chí Thanh</t>
+  </si>
+  <si>
+    <t>Dương Thị Thường</t>
+  </si>
+  <si>
+    <t>025867340</t>
+  </si>
+  <si>
+    <t>26/03/1986</t>
+  </si>
+  <si>
+    <t>Xã Krông Búk, Huyện Krông Pắc, Tỉnh Đắk Lắk</t>
+  </si>
+  <si>
+    <t>79/8 Nguyễn Văn Quá, khu phố 2A, Phường Đông Hưng Thuận, Quận 12, Thành Phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0983332603</t>
+  </si>
+  <si>
+    <t>thuong_daklak@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Văn học
+</t>
+  </si>
+  <si>
+    <t>Thạc sĩ</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>TC83</t>
+  </si>
+  <si>
+    <t>Trường THPT Phú Ngọc - Định Quán</t>
+  </si>
+  <si>
+    <t>THPT mới - Quận 9</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thủy Tiên</t>
+  </si>
+  <si>
+    <t>075180000684</t>
+  </si>
+  <si>
+    <t>07/03/1980</t>
+  </si>
+  <si>
+    <t>Xã Phú Bình, Huyện Tân Phú, Tỉnh Đồng Nai</t>
+  </si>
+  <si>
+    <t>CT2-520-Tổ 9-Khu phố 2, Phường Phú Hữu, Quận 9, Thành Phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0833101920</t>
+  </si>
+  <si>
+    <t>thuytiensglpn@gmail.com</t>
+  </si>
+  <si>
+    <t>V0705.15</t>
+  </si>
+  <si>
+    <t>3.99</t>
+  </si>
+  <si>
+    <t>Bậc 6</t>
+  </si>
+  <si>
+    <t>19/06/2018</t>
+  </si>
+  <si>
+    <t>TC84</t>
+  </si>
+  <si>
+    <t>THPT Thủ Thiêm</t>
+  </si>
+  <si>
+    <t>THPT Nguyễn Thị Minh Khai</t>
+  </si>
+  <si>
+    <t>PHẠM THỊ THU LIỄU</t>
+  </si>
+  <si>
+    <t>049174000317</t>
+  </si>
+  <si>
+    <t>25/12/1974</t>
+  </si>
+  <si>
+    <t>Xã Cẩm Hà, Thành Phố Hội An, Tỉnh Quảng Nam</t>
+  </si>
+  <si>
+    <t>158/23B, Xô Viết Nghệ Tĩnh, Phường 21, Quận Bình Thạnh, Thành Phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0933422045</t>
+  </si>
+  <si>
+    <t>pttlieu74@gmail.com</t>
+  </si>
+  <si>
+    <t>15113</t>
+  </si>
+  <si>
+    <t>4.98</t>
+  </si>
+  <si>
+    <t>Bậc 9</t>
+  </si>
+  <si>
+    <t>TC89</t>
+  </si>
+  <si>
+    <t>Trung cấp Kinh tế-Kỹ thuật Nguyễn Hữu Cảnh</t>
+  </si>
+  <si>
+    <t>Hóa học</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kiều Tân</t>
+  </si>
+  <si>
+    <t>082171000481</t>
+  </si>
+  <si>
+    <t>08/10/1971</t>
+  </si>
+  <si>
+    <t>Thị Trấn Cai Lậy, Huyện Cai Lậy, Tỉnh Tiền Giang</t>
+  </si>
+  <si>
+    <t>66/19/6, Trần văn Quang, Phường 10, Quận Tân Bình, Thành Phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0982974445</t>
+  </si>
+  <si>
+    <t>Nguyenthikieutan@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hóa học
+</t>
+  </si>
+  <si>
+    <t>15.113</t>
+  </si>
+  <si>
+    <t>3,33</t>
+  </si>
+  <si>
+    <t>Bậc 4</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>TC108</t>
+  </si>
+  <si>
+    <t>THPT Chuyên Năng khiếu TDTT Nguyễn Thị Định</t>
+  </si>
+  <si>
+    <t>THPT Trần Khai Nguyên</t>
+  </si>
+  <si>
+    <t>LÊ NGỌC VIỆT</t>
+  </si>
+  <si>
+    <t>025568939</t>
+  </si>
+  <si>
+    <t>15/04/1984</t>
+  </si>
+  <si>
+    <t>Xã Kỳ Tiến, Huyện Kỳ Anh, Tỉnh Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>107 AB đường Ngô Quyền, Phường 11, Quận 5, Thành Phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0982104704</t>
+  </si>
+  <si>
+    <t>ngocviet15484@yahoo.com</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>01/09/2019</t>
+  </si>
+  <si>
+    <t>TC113</t>
+  </si>
+  <si>
+    <t>THPT Tân Túc</t>
+  </si>
+  <si>
+    <t>THPT Bình Chánh</t>
+  </si>
+  <si>
+    <t>DƯƠNG TÚ ANH</t>
+  </si>
+  <si>
+    <t>026055576</t>
+  </si>
+  <si>
+    <t>27/12/1988</t>
+  </si>
+  <si>
+    <t>Xã Phú Hưng, Huyện Cái Nước, Tỉnh Cà Mau</t>
+  </si>
+  <si>
+    <t>D12/20, ấp 4, Xã Bình Chánh, Huyện Bình Chánh, Thành Phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0909587973</t>
+  </si>
+  <si>
+    <t>dtanh758@gmail.com</t>
+  </si>
+  <si>
+    <t>Xuất sắc</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
   </si>
 </sst>
 </file>
@@ -241,7 +627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:Y8"/>
+  <dimension ref="A2:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -513,6 +899,699 @@
         <v>48</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>2</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>4</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>6</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>7</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>8</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>9</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>10</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y17" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:N2"/>
